--- a/src/main/java/testDataDriving/CPoc data.xlsx
+++ b/src/main/java/testDataDriving/CPoc data.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23670" windowHeight="3420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>username</t>
   </si>
@@ -31,6 +32,18 @@
   </si>
   <si>
     <t>Welcome@12</t>
+  </si>
+  <si>
+    <t>xyz@cq.com</t>
+  </si>
+  <si>
+    <t>num1</t>
+  </si>
+  <si>
+    <t>rtt@vy.com</t>
+  </si>
+  <si>
+    <t>p2p22</t>
   </si>
 </sst>
 </file>
@@ -75,7 +88,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -83,6 +96,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -364,10 +378,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -392,10 +406,28 @@
         <v>3</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1"/>
     <hyperlink ref="B2" r:id="rId2"/>
+    <hyperlink ref="A3" r:id="rId3"/>
+    <hyperlink ref="A4" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
